--- a/Pokémon.xlsx
+++ b/Pokémon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\insper\2021-1\cdados\New folder\Cdados_2021.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC0C74-83EC-48D8-90E3-89B73D07ADAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D22718-2B1B-45D2-A583-3C2C3C05611E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1859,11 +1859,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2210,17 +2207,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2228,7 +2225,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2236,7 +2233,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2244,7 +2241,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2252,7 +2249,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2260,7 +2257,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2268,7 +2265,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2276,7 +2273,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2284,7 +2281,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2292,7 +2289,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -2300,7 +2297,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2308,7 +2305,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2316,7 +2313,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2324,7 +2321,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2332,7 +2329,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2340,7 +2337,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2348,7 +2345,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2356,7 +2353,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2364,7 +2361,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2372,7 +2369,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2380,7 +2377,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2388,7 +2385,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2396,7 +2393,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -2404,7 +2401,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -2412,7 +2409,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -2420,7 +2417,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2428,7 +2425,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2436,7 +2433,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2444,7 +2441,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2452,7 +2449,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2460,7 +2457,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2468,7 +2465,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2476,7 +2473,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2484,7 +2481,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2492,7 +2489,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2500,7 +2497,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -2508,7 +2505,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -2516,7 +2513,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2524,7 +2521,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2532,7 +2529,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2540,7 +2537,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -2548,7 +2545,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -2556,7 +2553,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -2564,7 +2561,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -2572,7 +2569,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -2580,7 +2577,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -2588,7 +2585,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -2596,7 +2593,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -2604,7 +2601,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -2612,7 +2609,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -2620,7 +2617,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -2628,7 +2625,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -2636,7 +2633,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2644,7 +2641,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2652,7 +2649,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2660,7 +2657,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2668,7 +2665,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2676,7 +2673,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2684,7 +2681,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2692,7 +2689,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2700,7 +2697,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2708,7 +2705,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2716,7 +2713,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2724,7 +2721,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2732,7 +2729,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2740,7 +2737,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -2748,7 +2745,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -2756,7 +2753,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -2764,7 +2761,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -2772,7 +2769,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -2780,7 +2777,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -2788,7 +2785,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -2796,7 +2793,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -2804,7 +2801,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -2812,7 +2809,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -2820,7 +2817,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -2828,7 +2825,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -2836,7 +2833,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -2844,7 +2841,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -2852,7 +2849,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -2860,7 +2857,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -2868,7 +2865,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -2876,7 +2873,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -2884,7 +2881,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -2892,7 +2889,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -2900,7 +2897,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -2908,7 +2905,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -2916,7 +2913,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -2924,7 +2921,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -2932,7 +2929,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -2940,7 +2937,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -2948,7 +2945,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -2956,7 +2953,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -2964,7 +2961,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -2972,7 +2969,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -2980,7 +2977,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -2988,7 +2985,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -2996,7 +2993,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -3004,7 +3001,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -3012,7 +3009,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -3020,7 +3017,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -3028,7 +3025,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -3036,7 +3033,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -3044,7 +3041,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -3052,7 +3049,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -3060,7 +3057,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -3068,7 +3065,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -3076,7 +3073,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -3084,7 +3081,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -3092,7 +3089,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -3100,7 +3097,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -3108,7 +3105,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -3116,7 +3113,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -3124,7 +3121,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -3132,7 +3129,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -3140,7 +3137,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -3148,7 +3145,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -3156,7 +3153,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -3164,7 +3161,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -3172,7 +3169,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -3180,7 +3177,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -3188,7 +3185,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -3196,7 +3193,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -3204,7 +3201,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -3212,7 +3209,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -3220,7 +3217,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -3228,7 +3225,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -3236,7 +3233,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -3244,7 +3241,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -3252,7 +3249,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -3260,7 +3257,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -3268,7 +3265,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -3276,7 +3273,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -3284,7 +3281,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -3292,7 +3289,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -3300,7 +3297,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -3308,7 +3305,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -3316,7 +3313,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -3324,7 +3321,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -3332,7 +3329,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -3340,7 +3337,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -3348,7 +3345,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -3356,7 +3353,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -3364,7 +3361,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -3372,7 +3369,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -3380,7 +3377,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -3388,7 +3385,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -3396,7 +3393,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -3404,7 +3401,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -3412,7 +3409,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -3420,7 +3417,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -3428,7 +3425,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -3436,7 +3433,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -3444,7 +3441,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -3452,7 +3449,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -3460,7 +3457,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -3468,7 +3465,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -3476,7 +3473,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -3484,7 +3481,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -3492,7 +3489,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -3500,7 +3497,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -3508,7 +3505,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -3516,7 +3513,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -3524,7 +3521,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -3532,7 +3529,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -3540,7 +3537,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -3548,7 +3545,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -3556,7 +3553,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -3564,7 +3561,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -3572,7 +3569,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -3580,7 +3577,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -3588,7 +3585,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -3596,7 +3593,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -3604,7 +3601,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -3612,7 +3609,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -3620,7 +3617,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -3628,7 +3625,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -3636,7 +3633,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -3644,7 +3641,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -3652,7 +3649,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -3660,7 +3657,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -3668,7 +3665,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -3676,7 +3673,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -3684,7 +3681,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -3692,7 +3689,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -3700,7 +3697,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -3708,7 +3705,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -3716,7 +3713,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -3724,7 +3721,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -3732,7 +3729,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -3740,7 +3737,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -3748,7 +3745,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -3756,7 +3753,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -3764,7 +3761,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -3772,7 +3769,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -3780,7 +3777,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -3788,7 +3785,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -3796,7 +3793,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -3804,7 +3801,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -3812,7 +3809,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -3820,7 +3817,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -3828,7 +3825,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -3836,7 +3833,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -3844,7 +3841,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -3852,7 +3849,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -3860,7 +3857,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -3868,7 +3865,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -3876,7 +3873,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -3884,7 +3881,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -3892,7 +3889,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -3900,7 +3897,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -3908,7 +3905,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -3916,7 +3913,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -3924,7 +3921,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -3932,7 +3929,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -3940,7 +3937,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -3948,7 +3945,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -3956,7 +3953,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -3964,7 +3961,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -3972,7 +3969,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -3980,7 +3977,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -3988,7 +3985,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -3996,7 +3993,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -4004,7 +4001,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -4012,7 +4009,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -4020,7 +4017,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -4028,7 +4025,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -4036,7 +4033,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -4044,7 +4041,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -4052,7 +4049,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -4060,7 +4057,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -4068,7 +4065,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -4076,7 +4073,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -4084,7 +4081,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -4092,7 +4089,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -4100,7 +4097,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -4108,7 +4105,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -4116,7 +4113,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -4124,7 +4121,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -4132,7 +4129,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -4140,7 +4137,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -4148,7 +4145,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -4156,7 +4153,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -4164,7 +4161,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -4172,7 +4169,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -4180,7 +4177,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -4188,7 +4185,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -4196,7 +4193,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -4204,7 +4201,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -4212,7 +4209,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -4220,7 +4217,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -4228,7 +4225,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -4236,7 +4233,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -4244,7 +4241,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -4252,7 +4249,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -4260,7 +4257,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -4268,7 +4265,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -4276,7 +4273,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -4284,7 +4281,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -4292,7 +4289,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -4300,7 +4297,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -4308,7 +4305,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -4316,7 +4313,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -4324,7 +4321,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -4332,7 +4329,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -4340,7 +4337,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -4348,7 +4345,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -4356,7 +4353,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -4364,7 +4361,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -4372,7 +4369,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -4380,7 +4377,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -4388,7 +4385,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -4396,7 +4393,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -4404,7 +4401,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -4412,7 +4409,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -4420,7 +4417,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -4428,7 +4425,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -4436,7 +4433,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -4444,7 +4441,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -4452,7 +4449,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -4460,7 +4457,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -4468,7 +4465,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -4476,7 +4473,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -4484,7 +4481,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -4492,7 +4489,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -4500,7 +4497,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -4508,7 +4505,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -4516,7 +4513,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -4524,7 +4521,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -4532,7 +4529,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -4540,7 +4537,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -4548,7 +4545,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -4556,7 +4553,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -4564,7 +4561,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -4572,7 +4569,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -4580,7 +4577,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -4588,7 +4585,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -4596,7 +4593,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -4604,7 +4601,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -4612,7 +4609,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -4620,7 +4617,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -4634,1015 +4631,1623 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.28515625" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>501</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
